--- a/story/主线剧情/main/level_spst_08-03.xlsx
+++ b/story/主线剧情/main/level_spst_08-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="感染者战士"] 塔露拉。
 </t>
   </si>
@@ -491,6 +497,478 @@
   </si>
   <si>
     <t xml:space="preserve">[name="感染者戦士"] おい！　みんな、飯だぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...Hm? You rarely make that face, friend. What's wrong?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] We've decided.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] We're going to stay here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Ah, uh... putting it another way, there are some of us willing to stay here. And some are thinking about getting out of Ursus territory.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] But either way, none of us'll be carrying on heading south with you. We're sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Alright. I see.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] You're not even going to ask for a reason?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] You're the one who taught us, took us all this way up 'til today—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And does that mean you have to obey me, keep your life tied to your blade, fight Ursus to your last breath?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Because it's never been like that. Never been, friend. You've got the cart and the beast mixed up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Ha ha... I guess. That's like you, Talulah, it really is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I'm not your ruler. And you deserve to have this land, in the first place. Even if filled with corpses, turbulent with bad memories, the tundra is, as it was, your homeland.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You're all strong. I'm sure you'll find a way to prevail through it all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If you want, I can send you off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] No, no, don't, really. You should know it wasn't exactly the firmest thing, making this decision, anyhow...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Ha, thinking about it, I used to be one of your people. I'll be telling my future companions plenty of stories about you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Here's begging for your mercy, then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Distant Shout"] Talulah, the campfire's up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Alright, I'll be there in a moment!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Friend, will tonight be our last meal together?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Just wait a bit longer... some others'll want to talk with you too, probably. All of them would.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Mm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] ...Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] How do you guarantee that everyone who stands by your side works with you as one? How do you know betrayal or some other crap isn't headed your way?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Uh... no, I guess you obviously have your ways. You're so smart, so strong to boot, and you know so much. A wound here or some bleeding there wouldn't slow your pace down, would it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...The praise is one thing, but could you not make me out to be so terrifying?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Ha ha, don't get us wrong, one or two frustrations wouldn't make us lose our gall. We're no cowards...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] I just suddenly realized. Actually, maybe not everyone thinks... thinks the same as you, anyway. Yeah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] I mean, take me. I was gonna die anyway. I just chose to tag along with you all so I'd be able to eat something, live a few more days of my life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Moment I ate my own fill, I realized there were actually plenty like me. And I figured it'd be nice if they could eat their fill too...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Strength, particularly in goodwill. They're qualities hard to come by.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Yep. Hard, for sure. So it's definitely not everyone who thinks that way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Who can guarantee we'll keep moving on, that we won't meet a crueler end? The old noblemen eliminating us all, implicating the innocent poor and all their children along the way?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] I... it doesn't really matter to me, but when I realize all the other ways it could go, it stresses me out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] And not to mention that to some people, nothing else matters except their own fill... if the question is just feeding yourself, even I could come up with plenty of ideas, like... ngh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Like selling out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Selling out what matters to us. Plenty of people are itching to destroy us, and they'd happily let some nobody Infected off to dispatch the remaining rebels. Couldn't be more cost-effective if you tried.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] So I think... seeing that's how things are, we can't leave here now more than ever.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Talulah, we can't take every single person with us, can we?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I have to... concede that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] That being the case, before we head all the way south and win all that goodness you talked about... uh, what about the tundra? What about the Infected left behind on it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Not just the tundra, really... the world’s so vast, and to say it straight, some people are just thinking of taking the chance to leave this place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Finding like-minded folk elsewhere in hardship and distress, seeing if other places... might have a niche in them for the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Some people might look at it that way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Your seeing things this way honestly makes me really... happy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Uh... feels like the why would fly over my head, so I'm just gonna not ask...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] C—circling back, uh... does the fact we're leaving at such a critical point mean we'll be considered deserters? I don't really get all that too well, which is why I came to talk to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] *chuckle* Well, of course not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Be it Talulah, the Guerrillas, so on, they're all "names" and nothing more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You carry what lies beneath your names... your mindsets, spirits. You carry that sublime fire of resistance, scattering it across this world's every part. For all this, where's the need to fault yourself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Alright!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Frankly, I only sort of get it still, but with those words coming from you, Talulah, that puts me at ease.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Be at ease, really.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Alright... I can't let the hunters' efforts go to waste. The knack you all have for laying out traps really opens my eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] I'll miss the days I was able to eat like this. Talulah, we'll travel to every corner of this land.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"] Hey, everyone over here! Food's ready!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 탈룰라 씨.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……좀처럼 보기 드문 표정이로군. 무슨 일이지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 우리, 정했습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 여기 남기로 했습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 아, 그게 아니라…… 그러니까 정확히 말하자면 우리 중 일부만 여기에 남을 생각입니다. 다른 사람들은 우르수스를 떠날 생각이고요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 어쨌든 우린 더는 남하하지 않을 겁니다, 죄송합니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그래? 마음대로 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 이유는 안 물어보는 건가요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 우리에게 싸우는 법을 가르쳐 주고, 또 우리를 여기까지 데려와 준 건 당신이었죠……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그래서 내게 복종하고, 목숨을 걸고 우르수스와 싸워야 한다고 생각하는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그런 일은 없어, 절대. 그런 건 원칙에 어긋나는 거니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 하하…… 네, 당신은 이런 사람이었죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 난 너희의 지도자가 아냐. 사방이 시신으로 가득하고 불행한 기억만 담긴 곳이라고 해도 툰드라는 너희가 되찾아야 할 땅이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너흰 강해, 너희가 이 모든 걸 이겨낼 방법을 찾을 거라 믿는다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 필요하다면 내가 배웅해 주겠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 아, 아닙니다. 괜찮습니다. 우리에게도 쉽지 않은 결정이었다는 걸 알아주셨으면 합니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 훗, 그러고 보니 저도 한때는 여러분의 동료였는데. 앞으로 새로운 동료들에게 당신에 관한 이야기를 들려줄 수 있겠네요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 너무 나쁘게만 말하지 않았으면 좋겠군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="멀리서 누군가 외치는 소리"] 탈룰라, 모닥불 피웠어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 알았어, 금방 갈게!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그럼 오늘 저녁이 마지막으로 함께 하는 식사가 되는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 조금 있으면…… 다른 사람들도 여기 와서 이야기를 할 겁니다, 모두 다요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그래.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] ……탈룰라 씨.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 모든 사람이 한마음으로 당신의 편에 설 거라고 어떻게 확신하는 겁니까? 더는 배신당하는 일이 없을 거라고 어떻게 확신하는 거죠?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 아…… 물론 그럴 만한 이유가 있겠죠. 당신은 현명하고 강한 데다 많은 걸 알고 있으니까요. 상처를 입고 피를 흘린다 해도 멈추지 않겠죠, 그렇죠?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……칭찬으로 받아들이지. 그래도 그렇게 무섭게 말하진 말아줬으면 좋겠는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 하하, 오해하지 마십시오. 한두 번 좌절했다고 쫄 겁쟁이는 아니니까요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 그냥 문득 그런 생각이 들었습니다, 어쩌면 모두가…… 당신처럼 생각하는 것 같지는 않을 거라고요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 사실 저만 해도 어차피 죽을 목숨, 며칠 더 살더라도 배불리 먹었으면 좋겠다는 생각에 당신들을 따르기로 한 거거든요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 배불리 먹고 나니 의외로 저 같은 사람이 많다는 걸 알게 됐습니다. 그들도 배만 부르면 된다고 생각한 거겠죠……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 강인함과 선의, 모두 보기 드문 것이니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 네, 그렇죠. 모두 그렇게 생각하는 건 아니겠지만요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 이렇게 계속 싸우다 보면 더 나빠지는 일은 없을 거라고 과연 누가 장담할 수 있을까요? 귀족과 권력가들이 우리를 몰살시키고, 죄 없는 사람들과 아이들을 끌어들이지 않을 거라고 누가 자신 있게 이야기할 수 있을까요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 전…… 전 괜찮지만, 다른 가능성을 생각하면 두렵습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 나 혼자만 배부르면 된다고 생각하는 사람들은 말할 것도 없죠…… 혼자서 배부를 수 있는 일이라면 제게도 이런저런 방법이 있답니다. 이를테면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 팔아버리는 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 우리가 중요시하는 걸 말이죠. 우리를 못 잡아먹어서 안달하는 사람들이 많으니 하찮은 감염자 한 명을 풀어줘서 나머지 반역자들을 해결해 버린다면 이보다 남는 장사는 없겠죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 그래서 이런 생각이 들었습니다…… 이왕 이렇게 된 이상 여기를 더더욱 떠나선 안 된다고요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 탈룰라 씨, 모든 사람을 데려갈 순 없는 거겠죠?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 인정할 수밖에…… 없겠군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 이렇게 됐으니 계속 남하하면 당신이 말한 아름다운 걸 얻기도 전에…… 엇, 그럼 툰드라는 어떻게 되는 겁니까? 툰드라에 남은 감염자들은……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 툰드라뿐만이 아닐 겁니다…… 이 기회에 여길 떠나려는 사람이 넓고 넓은 세상에 깔렸을 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 다른 곳에서 고통받은 동료들을 찾고, 다른 곳을 돌아보다 보면…… 감염자들이 발붙일 만한 곳 하나 정도는 있지 않을까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 그렇게 생각하는 사람도 있을 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 훗……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그렇게 생각한다니…… 기쁘군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 어…… 혹시 제가 모르는 사정이 있는 건가요? 그게 뭔지는 묻지 않겠습니다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 그, 그나저나…… 결정적인 순간에 이탈한다면 저희를 탈영병으로 오해하진 않을까요? 이런 일은 잘 몰라서 의견을 듣고 싶습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 훗, 절대 그런 일은 없을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 탈룰라든, 유격대든 상관없어. 모두 그저 '이름'에 불과할 뿐이니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그 이름 아래 너희들이 지닌…… 생각, 정신, 저항의 뜻을 담은 숭고한 불꽃을 세상에 퍼뜨린 걸 자책할 필요는 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 알겠습니다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 솔직히 완벽히 이해한 건 아니지만, 탈룰라 씨가 그렇게 말해주니 안심입니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 안심해도 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 자…… 사냥꾼들이 헛수고하게 할 수는 없지, 너희들의 함정 설치 실력은 솔직히 놀라울 정도였어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 이렇게 밥을 먹을 수 있는 날들을 소중히 여길 겁니다. 탈룰라, 저흰 이 세상 끝까지 갈 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"] 어이! 다들 어서 와, 식사 시간이다!
 </t>
   </si>
 </sst>
@@ -849,490 +1327,850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
